--- a/src/test/resources/TestData/Stinger/StingerTestData.xlsx
+++ b/src/test/resources/TestData/Stinger/StingerTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkJEE!\workjee\BraunEMEMA\HoT-digital-master\src\test\resources\TestData\Stinger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkJEE!\stinger tax code 22-09-2021\tax\HoT-digital\src\test\resources\TestData\Stinger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5CFA83-358E-4618-8646-05EF4DB880D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4236FD03-D04C-4E72-AC83-71E213BCB2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B7D300D1-7AEC-4306-B2B0-C9F210226332}"/>
   </bookViews>
@@ -393,9 +393,6 @@
     <t>Stinger Mosquito Repellent Refills</t>
   </si>
   <si>
-    <t>rajkumar@gmail.com</t>
-  </si>
-  <si>
     <t>FooterNames</t>
   </si>
   <si>
@@ -427,6 +424,9 @@
   </si>
   <si>
     <t>Products,Privacy Policy,Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>rpotharaju@helenoftroy.com</t>
   </si>
 </sst>
 </file>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AA4073-2E49-4649-9D78-B3EDA801FEDE}">
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,10 +957,10 @@
         <v>23</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
@@ -971,7 +971,7 @@
         <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
         <v>72</v>
@@ -991,7 +991,7 @@
         <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
         <v>72</v>
@@ -1015,7 +1015,7 @@
         <v>73</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -1253,7 +1253,7 @@
         <v>18</v>
       </c>
       <c r="S11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
         <v>9898908878</v>
       </c>
       <c r="S26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X26" t="s">
         <v>52</v>
@@ -1599,15 +1599,15 @@
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AM32">
         <v>2</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL33" t="s">
         <v>132</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/Stinger/StingerTestData.xlsx
+++ b/src/test/resources/TestData/Stinger/StingerTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkJEE!\stinger tax code 22-09-2021\tax\HoT-digital\src\test\resources\TestData\Stinger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\RF\HoT-digital\src\test\resources\TestData\Stinger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4236FD03-D04C-4E72-AC83-71E213BCB2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC0F9B1-A10C-4BF2-A07B-A70C2355B015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B7D300D1-7AEC-4306-B2B0-C9F210226332}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="137">
   <si>
     <t>DataSet</t>
   </si>
@@ -427,6 +427,15 @@
   </si>
   <si>
     <t>rpotharaju@helenoftroy.com</t>
+  </si>
+  <si>
+    <t>AdminLogins</t>
+  </si>
+  <si>
+    <t>suvarchala</t>
+  </si>
+  <si>
+    <t>3Z9R773R26</t>
   </si>
 </sst>
 </file>
@@ -487,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -500,6 +509,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -816,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AA4073-2E49-4649-9D78-B3EDA801FEDE}">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1063,7 @@
         <v>40</v>
       </c>
       <c r="P5" s="5">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="Q5" t="s">
         <v>41</v>
@@ -1072,7 +1084,7 @@
         <v>43</v>
       </c>
       <c r="P6" s="5">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="Q6" t="s">
         <v>41</v>
@@ -1619,6 +1631,17 @@
       </c>
       <c r="AL33" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
